--- a/spreadsheet/macrofree/datasecurity_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.zh-Hant.xlsx
@@ -1101,18 +1101,18 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識對服務進行身份驗證</t>
+          <t>加密傳輸中的敏感數據</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 作為預設身份驗證方法來控制數據平面訪問。</t>
+          <t>不需要其他配置，因為此功能已在預設部署中啟用。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/transport-layer-security-configure-minimum-version</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1136,7 +1136,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
+          <t>21d41d25-00c8-417b-b9ea-c41fd3390798</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,17 +1153,17 @@
       <c r="B10" s="21" t="inlineStr"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>分離和限制高許可權/管理使用者，並啟用 MFA 和條件策略</t>
+          <t>使用託管標識對服務進行身份驗證</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>如果日常管理操作不需要，請禁用或限制任何本地管理員帳戶，以供緊急使用。</t>
+          <t>使用 Microsoft Entra ID 作為預設身份驗證方法來控制數據平面訪問。</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1172,13 +1172,17 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="n"/>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
+          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1189,20 +1193,16 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure RBAC 控制對存儲的訪問，使用 Synapse RBAC 控制工作區級別的訪問，具體取決於團隊的角色，以精細化對數據和計算的訪問</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Azure Synapse 還包括 Synapse 基於角色的訪問控制 （RBAC） 角色，用於管理 Synapse Studio 的不同方面。利用這些內置角色為使用者、組或其他安全主體分配許可權，以管理誰可以發佈代碼構件並列出或訪問已發佈的代碼構件、在 Apache Spark 池和集成運行時上執行代碼、訪問受憑據保護的連結（數據）服務、監控或取消作業執行、查看作業輸出和執行日誌。</t>
-        </is>
-      </c>
+          <t>默認啟用靜態數據加密</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1214,17 +1214,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
+          <t>bc288bec-6a17-4ca7-8444-51e1add3452a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1241,13 +1237,17 @@
       <c r="B12" s="21" t="inlineStr"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>在專用 SQL 池中的 SQL 工作負載上實施 RLS、CLS 和數據掩碼，以增加額外的安全層</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>分離和限制高許可權/管理使用者，並啟用 MFA 和條件策略</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>如果日常管理操作不需要，請禁用或限制任何本地管理員帳戶，以供緊急使用。</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,17 +1256,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
+          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1277,18 +1273,18 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>使用託管 vnet 工作區限制通過公共 Internet 的訪問</t>
+          <t>需要時，在靜態數據加密中使用客戶管理的金鑰選項</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>創建 Azure Synapse 工作區時，可以選擇將其關聯到 Microsoft Azure 虛擬網路。與工作區關聯的虛擬網路由 Azure Synapse 管理。此虛擬網路稱為託管工作區虛擬網路。可以在部署工作區時選擇此項</t>
+          <t>使用 Keyvaults 儲存 CMK</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1304,7 +1300,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/configure-customer-managed-key?tabs=Key-Vault</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1312,7 +1308,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
+          <t>ec723923-7a15-41c5-ab5e-401915387e5c</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1323,18 +1319,18 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>配置專用終結點以連接到外部服務並禁用公有訪問</t>
+          <t>使用 Azure RBAC 控制對存儲的訪問，使用 Synapse RBAC 控制工作區級別的訪問，具體取決於團隊的角色，以精細化對數據和計算的訪問</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>為了保護任何敏感數據，建議完全禁用對 Workspace 終端節點的公共訪問。通過這樣做，它可以確保所有工作區端點只能使用私有端點訪問。</t>
+          <t>Azure Synapse 還包括 Synapse 基於角色的訪問控制 （RBAC） 角色，用於管理 Synapse Studio 的不同方面。利用這些內置角色為使用者、組或其他安全主體分配許可權，以管理誰可以發佈代碼構件並列出或訪問已發佈的代碼構件、在 Apache Spark 池和集成運行時上執行代碼、訪問受憑據保護的連結（數據）服務、監控或取消作業執行、查看作業輸出和執行日誌。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1350,7 +1346,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1358,7 +1354,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
+          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1369,21 +1365,21 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>如果啟用公網訪問，強烈建議配置 IP 防火牆規則</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>如果需要啟用公有訪問，強烈建議將IP防火牆規則配置為僅允許來自指定公有IP位址清單的入站連接。</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="n"/>
+          <t>在專用 SQL 池中的 SQL 工作負載上實施 RLS、CLS 和數據掩碼，以增加額外的安全層</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1392,7 +1388,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1400,7 +1396,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
+          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1417,10 +1413,14 @@
       <c r="B16" s="21" t="inlineStr"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>如果正在處理不應離開公司網路的敏感數據，請在 vnet 中部署 SHIR VM</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>使用託管 vnet 工作區限制通過公共 Internet 的訪問</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>創建 Azure Synapse 工作區時，可以選擇將其關聯到 Microsoft Azure 虛擬網路。與工作區關聯的虛擬網路由 Azure Synapse 管理。此虛擬網路稱為託管工作區虛擬網路。可以在部署工作區時選擇此項</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1434,7 +1434,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1442,7 +1442,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
+          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1453,23 +1453,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>開啟資料洩露保護 （DEP）</t>
+          <t>使用 Microsoft Entra ID 作為預設身份驗證方法，並盡可能禁用本地訪問</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>這隻能在部署工作區時完成，但不支援從 PyPI 等公共存儲庫安裝的 Python 庫。（ 在啟用之前考慮限制 ）</t>
+          <t>使用 Microsoft Entra ID 作為預設身份驗證方法。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1478,17 +1478,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
+          <t>a9c26d9c-42bb-45bd-8c69-99a246e3389a</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1499,18 +1495,18 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>使用客戶管理的 Workspace 金鑰進行靜態數據加密</t>
+          <t>配置專用終結點以連接到外部服務並禁用公有訪問</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>第一層加密由 Microsoft 託管金鑰完成，您可以使用客戶託管金鑰添加第二層加密</t>
+          <t>為了保護任何敏感數據，建議完全禁用對 Workspace 終端節點的公共訪問。通過這樣做，它可以確保所有工作區端點只能使用私有端點訪問。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1526,7 +1522,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1534,7 +1530,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
+          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1545,18 +1541,18 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>傳輸中的數據加密</t>
+          <t>使用託管標識對服務進行身份驗證</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse 利用 TLS 來確保數據在動態中加密。SQL 專用池支援 TLS 1.0、TLS 1.1 和 TLS 1.2 版本進行加密，其中 Microsoft 提供的驅動程式預設使用 TLS 1.2。無伺服器 SQL 池和 Apache Spark 池對所有出站連接使用 TLS 1.2。</t>
+          <t>使用 Microsoft Entra ID 作為預設身份驗證方法。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1570,17 +1566,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
+          <t>7e42c77d-78cb-46a2-8ad1-9f916e698d8f</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1591,38 +1583,38 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>將密碼、secert 和密鑰存儲在 Azure Key Vault 中</t>
+          <t>如果啟用公網訪問，強烈建議配置 IP 防火牆規則</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>使用 Keyvaults 儲存機密和憑據</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+          <t>如果需要啟用公有訪問，強烈建議將IP防火牆規則配置為僅允許來自指定公有IP位址清單的入站連接。</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>未驗證</t>
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+        </is>
+      </c>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
+          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1631,18 +1623,18 @@
       <c r="P20" s="25" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
       <c r="B21" s="21" t="inlineStr"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>在管道活動中使用 Azure Key Vault 機密</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>您可以將憑據或機密值存儲在 Azure Key Vault 中，並在管道執行期間使用它們以傳遞給您的活動。</t>
-        </is>
-      </c>
+          <t>配置條件訪問策略以限制對數據平面的訪問</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1654,17 +1646,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
+          <t>adfe27bd-e187-401a-a352-baa9b68a088c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1675,23 +1663,19 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>在必要時限制使用本地使用者</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>限制使用本地身份驗證方法進行數據平面訪問。相反，請使用 Microsoft Entra ID 作為預設身份驗證方法來控制數據平面訪問。</t>
-        </is>
-      </c>
+          <t>如果正在處理不應離開公司網路的敏感數據，請在 vnet 中部署 SHIR VM</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1700,13 +1684,17 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+        </is>
+      </c>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
+          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1723,17 +1711,17 @@
       <c r="B23" s="21" t="inlineStr"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識對服務進行身份驗證</t>
+          <t>使用 Azure Key Vault 儲存機密和密碼。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>託管身份消除了管理憑證的需要。託管標識在連接到支援 Microsoft Entra 身份驗證的資源時為服務實例提供標識。</t>
+          <t>限制金鑰和 secert 的公開</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1742,17 +1730,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
+          <t>9a80822b-8eb9-4d1b-a77f-26e5e6beba8e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1763,23 +1747,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>分離和限制高許可權/管理使用者，並啟用 MFA 和條件策略</t>
+          <t>開啟資料洩露保護 （DEP）</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>如果日常管理操作不需要，請禁用或限制任何本地管理員帳戶，以供緊急使用。</t>
+          <t>這隻能在部署工作區時完成，但不支援從 PyPI 等公共存儲庫安裝的 Python 庫。（ 在啟用之前考慮限制 ）</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1788,13 +1772,17 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
+        </is>
+      </c>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
+          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1805,19 +1793,19 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>禁用通過公共 Internet 的訪問，並配置防火牆規則或受信任的服務規則</t>
+          <t>分離和限制高許可權/管理使用者</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1832,7 +1820,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
+          <t>d4f3437c-c336-4d81-9f27-a71efe1b9b5d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1843,16 +1831,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>如果正在處理不應離開公司網路的敏感數據，請在 vnet 中部署 SHIR VM</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>使用共用訪問簽名 （SAS） 驗證對事件中心資源的訪問並限制本地使用者</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>創建事件中心命名空間時，會自動為該命名空間創建名為 RootManageSharedAccessKey 的策略規則。此策略具有整個命名空間的manage許可權。建議您將此規則視為管理 root 帳戶，不要在應用程式中使用它。您可以通過 PowerShell 或 Azure CLI 在門戶中為命名空間的 Configure （配置） 選項卡中創建其他策略規則。避免使用本地身份驗證方法或帳戶，應盡可能禁用這些方法或帳戶。請盡可能使用 Azure AD 進行身份驗證。</t>
+        </is>
+      </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -1864,13 +1856,17 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authenticate-shared-access-signature</t>
+        </is>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
+          <t>9de0d5d7-21d4-41d2-900c-817bf9eac41f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1881,18 +1877,18 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>使用託管 vnet IR 限制 Azure Integration Runtime 通過公共 Internet 的訪問</t>
+          <t>使用 Azure RBAC 精細化訪問</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>在數據工廠託管的虛擬網路中創建 Azure 集成運行時時，集成運行時將預配託管的虛擬網路。它使用私有終端節點安全地連接到支援的數據存儲。</t>
+          <t>使用 Azure 基於角色的訪問控制 （Azure RBAC） 通過內置角色分配來管理 Azure 資源訪問。可以將 Azure RBAC 角色分配給使用者、組、服務主體和託管標識。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -1906,12 +1902,16 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authorize-access-azure-active-directory</t>
+        </is>
+      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
+          <t>387e5ced-127d-4d14-8b06-b20c6999a646</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1922,18 +1922,18 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>配置託管專用終結點以使用託管 Azure IR 連接到資源</t>
+          <t>使用客戶管理的 Workspace 金鑰進行靜態數據加密</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>託管專用終結點是在數據工廠託管虛擬網路中創建的專用終結點，用於建立指向 Azure 資源的專用連結。數據工廠代表你管理這些專用終結點。</t>
+          <t>第一層加密由 Microsoft 託管金鑰完成，您可以使用客戶託管金鑰添加第二層加密</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1949,14 +1949,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
+          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1965,16 +1965,20 @@
       <c r="P28" s="25" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>聯網</t>
+        </is>
+      </c>
       <c r="B29" s="21" t="inlineStr"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>配置專用連結以連接到客戶 Vnet 和數據工廠中的源</t>
+          <t>禁用公共網路訪問</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>通過使用 Azure 專用連結，可以通過專用終結點連接到 Azure 中的各種平臺即服務 （PaaS） 部署。專用終結點是特定虛擬網路和子網中的專用IP位址</t>
+          <t>服務支援通過使用服務級別 IP ACL 篩選規則（而不是 NSG 或 Azure 防火牆）或使用“禁用公用網络訪問”切換開關來禁用公用網络訪問。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -1988,16 +1992,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
+          <t>f3389a7e-42c7-48e7-ac06-a62a2194956e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2014,12 +2014,12 @@
       <c r="B30" s="21" t="inlineStr"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>由 Microsoft 託管金鑰進行的靜態數據加密</t>
+          <t>傳輸中的數據加密</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>這是預設設置</t>
+          <t>Azure Synapse 利用 TLS 來確保數據在動態中加密。SQL 專用池支援 TLS 1.0、TLS 1.1 和 TLS 1.2 版本進行加密，其中 Microsoft 提供的驅動程式預設使用 TLS 1.2。無伺服器 SQL 池和 Apache Spark 池對所有出站連接使用 TLS 1.2。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2033,12 +2033,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
+          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2049,20 +2053,16 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>由 Microsoft 託管金鑰進行傳輸中的數據加密</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>這是預設設置</t>
-        </is>
-      </c>
+          <t>使用 Vnet 隔離受限網路上的流量</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2079,7 +2079,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
+          <t>6a8dc4a2-fe27-4b2e-8870-1a1352beedf7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2096,17 +2096,17 @@
       <c r="B32" s="21" t="inlineStr"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>BYOK 傳輸中的數據加密（客戶管理的金鑰 ）</t>
+          <t>將密碼、secert 和密鑰存儲在 Azure Key Vault 中</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>指定客戶管理的金鑰時，數據工廠會同時使用工廠系統金鑰和 CMK 來加密客戶數據。缺少其中任何一個都會導致 Deny of Access to data 和 factory。</t>
+          <t>使用 Keyvaults 儲存機密和憑據</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2115,17 +2115,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
+          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2136,19 +2132,19 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>在 Azure Key Vault 中存儲密碼和機密</t>
+          <t>為支援專用連結功能的所有 Azure 資源部署專用終結點，以便為資源建立專用訪問點。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2159,7 +2155,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/private-link-service</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2167,7 +2163,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
+          <t>9b488dee-c496-42cc-9cd2-1bf77f26e5e6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2176,11 +2172,7 @@
       <c r="P33" s="25" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>數據保護</t>
-        </is>
-      </c>
+      <c r="A34" s="21" t="inlineStr"/>
       <c r="B34" s="21" t="inlineStr"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
@@ -2213,7 +2205,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
+          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2230,12 +2222,12 @@
       <c r="B35" s="21" t="inlineStr"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 數據工廠中的 SHIR 數據儲存加密本地憑據</t>
+          <t>使用 Workspace 角色向使用者提供對數據的訪問許可權</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>您可以在具有自承載整合運行時的電腦上加密和儲存任何本地數據存儲（包含敏感資訊的連結服務）的憑據。</t>
+          <t>Fabric 使用工作區控制數據訪問。在工作區中，數據以 Fabric 項的形式顯示，除非您授予使用者對工作區的訪問許可權，否則使用者無法查看或使用項（數據）。您可以在許可權模型 中找到有關工作區和項目許可權的更多資訊。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2251,7 +2243,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+          <t>https://learn.microsoft.com/fabric/security/permission-model</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2259,7 +2251,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
+          <t>b3bed3d5-f353-47c1-946d-c56028a71ffe</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2270,16 +2262,20 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>定義在控制平面和數據平面中管理 Microsoft Purview 的角色和職責</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n"/>
+          <t>在 Onelake 上使用 RBAC 提供對 Tables/Files Onelake 中數據的精細訪問</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>OneLake RBAC 使用角色分配將許可權應用於其成員。</t>
+        </is>
+      </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2291,13 +2287,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>1bd05dd2-e0d5-4d77-8d41-e3611cc57b4a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2308,18 +2308,18 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>定義在 Azure 訂閱（控制平面）中部署和管理 Microsoft Purview 所需的角色和任務</t>
+          <t>使用快捷方式時，用戶的使用者身份也應具有對快捷方式目標位置的訪問許可權</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>為此，請使用 Azure RBAC</t>
+          <t>考慮使用者在快捷方式的目標和源位置的訪問許可權</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2335,15 +2335,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I37" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model#shortcuts</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8126504b-b47a-4393-a080-427294798b15</t>
+          <t>4b1410d4-3958-498c-8288-b3c6a57cfc64</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2354,18 +2358,18 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>定義使用 Microsoft Purview 執行數據管理和治理所需的角色和任務。（Data Map 和 Data Catalog 的數據平面。</t>
+          <t>限制向使用者提供工作區級別角色，而是僅向使用者共享專案</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>為此，請使用 Microsoft Purview 角色。</t>
+          <t>並非所有使用者都需要使用角色訪問整個工作區，因此請限制授予整個工作區的角色，並且僅使用共用項功能或 Fabric 中的管理許可權將項共用給使用者</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2381,15 +2385,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/get-started/share-items</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
+          <t>4451e1a3-d345-43a3-a763-9637a552d5c1</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2400,16 +2408,20 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>將角色分配給 Microsoft Entra 組，而不是將角色分配給單個使用者。</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="n"/>
+          <t>通過在 Warehouse 和 SQL 分析終端節點上定義 RLS、CLS 和動態數據掩碼來限制對數據的訪問</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>使用 RLS、CLS 和動態數據遮罩等功能來增強您對 SQL 工作負載的數據安全要求。</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2421,13 +2433,21 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/data-warehouse/tutorial-row-level-security</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
+          <t>5e401965-387e-45ce-b127-dd142b06b20c</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2438,16 +2458,20 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Active Directory 權利管理，通過訪問包將使用者訪問許可權映射到 Microsoft Entra 組。</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n"/>
+          <t>通過在Power BI中的語義模型上定義 RLS 和 OLS 來限制對數據的訪問</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>使用 Power BI 上的 RLS 和 OLS 等功能，在語義模型上獲得更多安全功能</t>
+        </is>
+      </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2461,15 +2485,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/security/service-admin-row-level-security</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
+          <t>6999a646-f338-49a7-b42c-78e78c06a62a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2480,19 +2508,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>對 Microsoft Purview 使用者強制實施多重身份驗證，尤其是對於具有特權角色的使用者，例如集合管理員、數據源管理員或數據管護者。</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="n"/>
+          <t>加密靜態數據</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>在 Fabric 中，存儲在 OneLake 中的所有數據都是靜態加密的</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2502,12 +2534,16 @@
       </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
+          <t>2194956e-6a8d-4c4a-8fe2-7b2e28701a13</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2518,19 +2554,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 向所有使用者、在 Entra 中註冊的安全組、服務主體和 Microsoft Purview 中集合內的託管標識提供身份驗證和授權</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>加密傳輸中的數據</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>在 Microsoft 服務之間通過公共 Internet 傳輸的數據始終至少使用 TLS 1.2 進行加密。Fabric 會盡可能協商到 TLS 1.3。</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2540,12 +2580,16 @@
       </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+          <t>52beedf7-9b48-48de-bc49-62cc3cd21bf7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2562,10 +2606,14 @@
       <c r="B43" s="21" t="inlineStr"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>定義最低許可權模型和降低特權帳戶的暴露</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="n"/>
+          <t>在必要時限制使用本地使用者</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>限制使用本地身份驗證方法進行數據平面訪問。相反，請使用 Microsoft Entra ID 作為預設身份驗證方法來控制數據平面訪問。</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -2583,7 +2631,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2594,16 +2642,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>使用專用連結服務啟用端到端網路隔離。（Microsoft Purview 數據映射）</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>使用 Microsoft Entra ID 作為預設身份驗證方法</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>無需執行任何操作。連接到 Fabric 的每個請求都使用 Microsoft Entra ID 進行身份驗證，允許使用者從公司辦公室、在家工作或遠端位置安全地連接到 Fabric。</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2615,17 +2667,17 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+          <t>7f26e5e6-b3be-4d3d-9f35-37c1346dc560</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2636,16 +2688,20 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Purview Firewall 禁用公共訪問。（Microsoft Purview 數據映射）</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="n"/>
+          <t>使用託管標識對服務進行身份驗證</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="inlineStr">
+        <is>
+          <t>託管身份消除了管理憑證的需要。託管標識在連接到支援 Microsoft Entra 身份驗證的資源時為服務實例提供標識。</t>
+        </is>
+      </c>
       <c r="E45" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2659,14 +2715,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>418db612-8126-4504-ab47-a393a0804272</t>
+          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2677,16 +2733,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>為部署了 Azure 數據源專用終結點、Microsoft Purview 專用終結點和自承載運行時 VM 的子網部署網路安全組 （NSG） 規則。（Microsoft Purview 數據映射）</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="n"/>
+          <t>使用 workspace identity 對服務進行身份驗證</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="inlineStr">
+        <is>
+          <t>Fabric 工作區標識是可與 Fabric 工作區關聯的自動託管服務主體。可以在除 My workspaces（我的工作區）之外的任何工作區的工作區設置中創建工作區身份。系統會自動為工作區標識分配工作區參與者角色，並有權訪問工作區專案。 限制：使用 Workspace Identity 作為身份驗證方法時，寫入快捷方式目標失敗。帶有 workspace-identity-authentication 的連接只能在 Onelake 快捷方式和數據管道中使用。</t>
+        </is>
+      </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2700,7 +2760,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2708,7 +2768,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+          <t>28a71ffe-1bd0-45dd-8e0d-5d771d41e361</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2719,19 +2779,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>使用網路虛擬設備管理的專用終結點（例如用於網路檢查和網路篩選的 Azure 防火牆）實現 Microsoft Purview。（Microsoft Purview 數據映射）</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="n"/>
+          <t>分離和限制高許可權/管理使用者，並啟用 MFA 和條件策略</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>如果日常管理操作不需要，請禁用或限制任何本地管理員帳戶，以供緊急使用。</t>
+        </is>
+      </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2740,17 +2804,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2761,18 +2821,18 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>為 Microsoft Purview 帳戶部署專用終結點以添加另一層安全性，以便僅允許源自虛擬網路中的用戶端調用訪問 Microsoft Purview 帳戶</t>
+          <t>將存儲帳戶上的 RBAC 角色提供給託管標識以建立成功連接</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>此專用終結點也是門戶專用終結點的先決條件。需要 Microsoft Purview 門戶專用終結點才能使用專用網路啟用與 Microsoft Purview 治理門戶的連接。Microsoft Purview 可以使用引入專用終結點掃描 Azure 或本地環境中的數據源。使用私有終端節點的限制 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+          <t>授予對存儲帳戶的標識許可權</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -2788,14 +2848,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity-authenticate#step-2-grant-the-identity-permissions-on-the-storage-account</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+          <t>1cc57b4a-4b14-410d-9395-898c2288b3c6</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2812,14 +2872,10 @@
       <c r="B49" s="21" t="inlineStr"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Purview 防火牆阻止公共訪問</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access。審查限制：https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
-        </is>
-      </c>
+          <t>禁用通過公共 Internet 的訪問，並配置防火牆規則或受信任的服務規則</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2836,7 +2892,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2847,16 +2903,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>網路安全</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>使用網路安全組篩選進出 Azure 虛擬網路中 Azure 資源的網路流量</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="n"/>
+          <t>配置受信任的工作區訪問許可權以訪問防火牆後面的存儲帳戶</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>具有工作區標識的結構工作區可以通過 OneLake 快捷方式的受信任工作區訪問許可權安全地讀取或寫入啟用了防火牆的 Azure Data Lake Storage Gen2 帳戶。</t>
+        </is>
+      </c>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2870,7 +2930,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/security-trusted-workspace-access</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -2878,7 +2938,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+          <t>a57cfc64-4451-4e1a-9d34-53a3c7639637</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2889,23 +2949,19 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>如果您的敏感數據無法離開本地 VNet 的邊界，強烈建議在企業 VNet 中使用 SHIR VM 來提取元數據</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
-        </is>
-      </c>
+          <t>如果正在處理不應離開公司網路的敏感數據，請在 vnet 中部署 SHIR VM</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2920,7 +2976,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2931,18 +2987,18 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure RBAC 將儲存帳戶（不受 MS 管理）的訪問許可權限限為僅目標使用者。</t>
+          <t>如果您有網路隔離需求，請使用託管 vnet 選項</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>元數據被提取並存儲在 Microsoft Purview 數據映射中，如果您沒有將託管存儲帳戶用於 Purview 帳戶，則所有人都可以訪問元數據，因此請實施適當的 RBAC 並將數據存取許可權限限為僅預期使用者。適用於 2023 年 12 月 15 日之後部署的帳戶（或使用 API 版本 2023-05-01-preview 及更高版本部署的帳戶）</t>
+          <t>託管虛擬網路是由 Microsoft Fabric 為每個 Fabric 工作區創建和管理的虛擬網路。託管虛擬網路為 Fabric Spark 工作負載提供網路隔離，這意味著計算集群部署在專用網路中，不再是共用虛擬網路的一部分。它僅支援 Fabric 中的 Spark 工作負載。</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -2956,13 +3012,21 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-vnets-fabric-overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+          <t>a552d5c1-5e40-4196-9387-e5ced127dd14</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2973,16 +3037,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>靜態數據由 Microsoft 託管金鑰加密</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="n"/>
+          <t>使用託管 vnet IR 限制 Azure Integration Runtime 通過公共 Internet 的訪問</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="inlineStr">
+        <is>
+          <t>在數據工廠託管的虛擬網路中創建 Azure 集成運行時時，集成運行時將預配託管的虛擬網路。它使用私有終端節點安全地連接到支援的數據存儲。</t>
+        </is>
+      </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -2999,7 +3067,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3010,16 +3078,20 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>傳輸中的數據由TLS 1.3 加密</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="n"/>
+          <t>配置託管專用終結點以訪問 Azure 服務</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="inlineStr">
+        <is>
+          <t>託管專用終端節點是一項功能，允許從 Fabric Spark 工作負載對數據源進行安全和私有訪問。您不能將 Starter Pool 與託管 PE 一起使用</t>
+        </is>
+      </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3031,13 +3103,21 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-private-endpoints-overview</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+          <t>6f4a0641-addd-4ea8-a477-cdeb3861bc3b</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3048,19 +3128,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>網路安全</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>如果不使用託管標識或沒有需要密碼的方法，請始終使用 Azure Key Vault 來存儲所有憑據</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="n"/>
+          <t>配置託管專用終結點以使用託管 Azure IR 連接到資源</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="inlineStr">
+        <is>
+          <t>託管專用終結點是在數據工廠託管虛擬網路中創建的專用終結點，用於建立指向 Azure 資源的專用連結。數據工廠代表你管理這些專用終結點。</t>
+        </is>
+      </c>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3069,12 +3153,16 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3085,16 +3173,20 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>防止意外刪除</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>通過應用資源鎖來防止意外刪除 Microsoft Purview 帳戶</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="n"/>
+          <t>配置專用連結以訪問你自己的 Azure vnet 中的資源，即傳入 Fabric 環境的流量</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="inlineStr">
+        <is>
+          <t>Fabric 使用虛擬網路中的專用IP位址。終端節點允許您網路中的使用者使用私有連結通過私有IP位址與 Fabric 通信。</t>
+        </is>
+      </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3106,12 +3198,21 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-private-links-use</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+          <t>c14aea6e-65d8-4d9a-9aec-218e6436b063</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3120,16 +3221,20 @@
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>聯網</t>
+        </is>
+      </c>
       <c r="B57" s="21" t="inlineStr"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>為 Microsoft Entra 租戶、Azure 訂閱和 Microsoft Purview 帳戶規劃不受限策略，以防止租戶範圍的帳戶鎖定。</t>
+          <t>如果使用者嘗試訪問您的 Fabric 環境，請配置 Microsoft Entra ID 條件訪問</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+          <t>當使用者進行身份驗證時，訪問是根據一組策略確定的，這些策略可能包括IP位址、位置和託管設備。</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3145,14 +3250,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+          <t>https://learn.microsoft.com/fabric/security/security-conditional-access</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+          <t>6cb45e57-9603-4324-adf8-cc23318da611</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3163,16 +3273,20 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>其他安全建議</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr"/>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>與 Microsoft 365 和 Microsoft Defender for Cloud 集成</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="n"/>
+          <t>您可以使用 Azure 服務標記來啟用與 Microsoft Fabric 之間的連接。</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="inlineStr">
+        <is>
+          <t>在 Azure 中，服務標記是一組定義的 IP 位址，它作為一個組自動進行管理，以最大程度地降低網路安全規則更新或更改的複雜性。</t>
+        </is>
+      </c>
       <c r="E58" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3184,12 +3298,21 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-service-tags</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+          <t>70265f4b-b46a-4393-af70-317294797b15</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3200,23 +3323,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr"/>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>定義最低許可權模型和降低特權帳戶的暴露</t>
+          <t>您可以將 Fabric URL 加入到您的白名單中</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>將管理員帳戶與普通用戶帳戶分開。</t>
+          <t>自選</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3225,12 +3348,21 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/fabric-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>78a219a4-6beb-4544-9502-4922634292bb</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3241,23 +3373,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>配置單點登錄和統一登錄。啟用多重身份驗證。</t>
+          <t>您可以將 Power BI URL 新增到允許清單</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure Databricks 支援 Microsoft Entra ID 條件訪問，它允許管理員控制允許使用者登錄 Azure Databricks 的位置和時間。條件訪問策略可以限制登錄到您的公司網路，或者可以要求多重身份驗證 （MFA）。</t>
+          <t>自選</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3268,14 +3400,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+          <t>https://learn.microsoft.com/fabric/security/power-bi-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>528537a5-4119-4bf8-b8f5-854287d9cdc1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3286,18 +3423,18 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>聯網</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>使用 Token 管理。</t>
+          <t>配置並使用本地數據閘道或 Vnet 資料閘道連接到本地或虛擬網路後面的源</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>客戶可以使用令牌管理 API 或 UI 控制件來啟用或禁用用於 REST API 身份驗證的個人存取權杖 （PAT）、限制允許使用 PAT 的使用者、設置新令牌的最長生命週期以及管理現有令牌。高度安全的客戶通常會為工作區的新令牌預置最長令牌生命週期。此功能需要 Premium 定價層。</t>
+          <t>數據閘道允許您將 Azure 和其他資料服務連接到 Microsoft Fabric 和 Power Platform，以便安全地與數據源通信、執行查詢並將結果傳輸回服務。</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3313,14 +3450,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+          <t>https://learn.microsoft.com/data-integration/gateway/service-gateway-install</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+          <t>56cc071a-e9b1-441a-a889-535e727897e7</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3329,25 +3466,21 @@
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>身份和訪問管理</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="inlineStr"/>
       <c r="B62" s="21" t="inlineStr"/>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>將管理員帳戶與普通用戶帳戶分開</t>
+          <t>配置專用連結以連接到客戶 Vnet 和數據工廠中的源</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>如果你的 Databricks 管理員也是 Databricks 平臺的普通使用者（例如，有一名首席數據工程師管理平臺並執行數據工程工作），Databricks 建議為管理任務創建一個單獨的帳戶。請務必注意，作為 Azure RBAC 模型的一部分，被授予對已部署的 Azure Databricks 工作區的資源組的參與者或更高許可權的使用者在登錄到該工作區時會自動成為管理員。因此，上述相同注意事項也應適用於 Azure 門戶使用者。</t>
+          <t>通過使用 Azure 專用連結，可以通過專用終結點連接到 Azure 中的各種平臺即服務 （PaaS） 部署。專用終結點是特定虛擬網路和子網中的專用IP位址</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3356,12 +3489,16 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3372,18 +3509,18 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>使用者和組的 SCIM 同步。</t>
+          <t>由 Microsoft 託管金鑰進行的靜態數據加密</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>SCIM（跨域身份管理系統）允許您將使用者和組從 Microsoft Entra ID 同步到 Azure Databricks。此方法有三個主要好處：1. 刪除使用者時，該用戶會自動從 Databricks 中刪除。2. 使用者也可以通過 SCIM 暫時禁用。客戶已將此功能用於客戶認為帳戶可能已洩露並需要調查 3.組會自動同步 有關如何為 Azure Databricks 配置 SCIM 的詳細說明，請參閱文檔。此功能需要 Premium 定價層</t>
+          <t>這是預設設置</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3397,17 +3534,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3418,18 +3551,18 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr"/>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>限制集群創建許可權。</t>
+          <t>由 Microsoft 託管金鑰進行傳輸中的數據加密</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>使用集群策略或較舊的集群 ACL，管理員可以定義組織內的哪些使用者或組能夠創建集群。集群 ACL 允許您指定哪些使用者可以將筆記本附加到給定集群。請注意，如果用戶共用已附加到標準模式集群的筆記本，則接收者也將能夠在該集群上執行代碼。這不適用於強制實施用戶隔離的群集：SQL 倉庫、與表 ACL 的高併發性群集以及與憑據直通群集的高併發性。使用 Unity Catalog 的客戶還可以啟用單使用者集群來強制實施隔離集群。</t>
+          <t>這是預設設置</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3449,7 +3582,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3458,21 +3591,25 @@
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
       <c r="B65" s="21" t="inlineStr"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>限制工作區管理員</t>
+          <t>BYOK 傳輸中的數據加密（客戶管理的金鑰 ）</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>帳戶管理員可以配置名為 RestrictWorkspaceAdmins 的工作區設置，以限制工作區管理員僅將作業擁有者更改為自己，並將作業運行方式設置更改為他們具有服務主體使用者角色的服務主體。</t>
+          <t>指定客戶管理的金鑰時，數據工廠會同時使用工廠系統金鑰和 CMK 來加密客戶數據。缺少其中任何一個都會導致 Deny of Access to data 和 factory。</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3483,7 +3620,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3491,7 +3628,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3502,7 +3639,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr"/>
@@ -3511,11 +3648,7 @@
           <t>在 Azure Key Vault 中存儲密碼和機密</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>請務必注意，即使客戶使用 Azure Key Vault 儲存其機密，仍需要在 Azure Databricks 中定義訪問控制。這是因為使用相同的服務標識來檢索 Azure Databricks 工作區的所有用戶的機密。</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -3527,12 +3660,16 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3541,17 +3678,25 @@
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
       <c r="B67" s="21" t="inlineStr"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>如果定期使用金鑰，請重新生成/輪換金鑰</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>在管道活動中使用 Azure Key Vault 機密</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>您可以將憑據或機密值存儲在 Azure Key Vault 中，並在管道執行期間使用它們以傳遞給您的活動。</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3560,13 +3705,17 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3577,18 +3726,18 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr"/>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用支援用戶隔離的集群。</t>
+          <t>使用 Azure 數據工廠中的 SHIR 數據儲存加密本地憑據</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>具有用戶隔離的集群包括強制執行，以便每個使用者在集群主機上以不同的非特權用戶帳戶運行。語言也僅限於可以以隔離方式實現的語言（SQL 和 Python），並且 Spark API 必須位於我們認為隔離安全的允許清單中。</t>
+          <t>您可以在具有自承載整合運行時的電腦上加密和儲存任何本地數據存儲（包含敏感資訊的連結服務）的憑據。</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -3602,13 +3751,17 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3625,14 +3778,10 @@
       <c r="B69" s="21" t="inlineStr"/>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>使用服務主體運行生產作業。對工作區級別 （ACL）、帳戶級別 （RBAC） 和數據級別 （Unity catalog） 安全控制使用適當的存取控制</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>將生產工作負載綁定到單個用戶帳戶違反了安全最佳實踐，因此我們建議在 Databricks 中配置服務主體。服務原則將管理員和使用者操作與工作負載分開，並防止工作負載在使用者離開組織時受到影響。使用 Databricks，可以將作業配置為作為服務主體運行，併為服務主體生成個人訪問令牌。</t>
-        </is>
-      </c>
+          <t>定義在控制平面和數據平面中管理 Microsoft Purview 的角色和職責</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3644,17 +3793,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3665,23 +3810,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr"/>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>避免將生產數據存儲在 DBFS 中。</t>
+          <t>定義在 Azure 訂閱（控制平面）中部署和管理 Microsoft Purview 所需的角色和任務</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，DBFS 是一個文件系統，可供給定工作區的所有使用者訪問，並且可以通過 API 訪問。這不一定是一個主要的數據洩露問題，因為您可以使用IP訪問清單或專用網路訪問來限制通過 DBFS API 或 Databricks cli 訪問資料的訪問。但是，隨著 Azure Databricks 使用量的增長和更多使用者加入工作區，這些使用者將有權訪問存儲在 DBFS 中的任何數據，從而產生不需要的信息共用的可能性。Databricks 建議我們的客戶不要將生產數據存儲在 DBFS 中。</t>
+          <t>為此，請使用 Azure RBAC</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3690,13 +3835,17 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+          <t>8126504b-b47a-4393-a080-427294798b15</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3707,18 +3856,18 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr"/>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>加密存儲並限制訪問。</t>
+          <t>定義使用 Microsoft Purview 執行數據管理和治理所需的角色和任務。（Data Map 和 Data Catalog 的數據平面。</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>對於你管理的存儲帳戶，你有責任確保根據你的要求保護存儲帳戶。範例可能包括：使用客戶管理的密鑰進行加密、使用存儲防火牆限制對受信任網路的訪問、不允許匿名公共訪問</t>
+          <t>為此，請使用 Microsoft Purview 角色。</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -3734,7 +3883,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3742,7 +3891,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3753,20 +3902,16 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr"/>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>為託管服務和工作區存儲添加客戶管理的金鑰</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>為存儲在 Azure Databricks 控制平面中的選定數據（例如筆記本、機密、Databricks SQL 查詢和 Databricks SQL 查詢歷史記錄）以及用於 DBFS 的根存儲帳戶添加客戶管理的密鑰。Azure Databricks 需要訪問此密鑰才能進行持續操作。可以撤銷對金鑰的訪問許可權，以防止 Azure Databricks 存取控制平面（或我們的備份）中的加密數據。這就像一個核選項，工作區停止運行，但它為極端情況提供了緊急控制。此功能需要 Premium 定價層。</t>
-        </is>
-      </c>
+          <t>將角色分配給 Microsoft Entra 組，而不是將角色分配給單個使用者。</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3778,17 +3923,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3799,20 +3940,16 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>聯網</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>啟用IP存取清單以限制對某些IP位址的訪問。</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>配置IP訪問清單，通過檢查使用者或API用戶端是否來自已知的良好IP位址範圍（如 VPN 或辦公網路），來限制可在帳戶控制台和工作區級別向 Databricks 進行身份驗證的IP位址。如果使用者移動到錯誤的IP位址（例如，從 VPN 斷開連接時），已建立的使用者會話將不起作用。</t>
-        </is>
-      </c>
+          <t>使用 Azure Active Directory 權利管理，通過訪問包將使用者訪問許可權映射到 Microsoft Entra 組。</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -3826,7 +3963,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -3834,7 +3971,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3845,23 +3982,19 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>聯網</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr"/>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>配置和使用 Azure 專用連結訪問 Azure 資源。</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure 專用連結提供從一個 Azure 環境到另一個 Azure 環境的專用網路路由。專用連結既可以在 Azure Databricks 使用者和控制平面之間配置，也可以在控制平面和數據平面之間配置。在 Databricks 使用者和控制平面之間，專用連結提供了強大的控制措施來限制入站請求的來源。如果公司已通過 Azure 環境路由流量，則可以使用專用連結，以便使用者與 Azure Databricks 控制平面之間的通信不會遍歷公共 IP 位址。此功能需要 Premium 定價層。使用 Azure 專用連結從 Azure Databricks 連接到 Azure 資源。專用鏈接不僅確保</t>
-        </is>
-      </c>
+          <t>對 Microsoft Purview 使用者強制實施多重身份驗證，尤其是對於具有特權角色的使用者，例如集合管理員、數據源管理員或數據管護者。</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3870,17 +4003,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3889,561 +4018,1386 @@
       <c r="P74" s="25" t="n"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
+      <c r="A75" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B75" s="21" t="inlineStr"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>使用 Microsoft Entra ID 向所有使用者、在 Entra 中註冊的安全組、服務主體和 Microsoft Purview 中集合內的託管標識提供身份驗證和授權</t>
+        </is>
+      </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
-      <c r="L75" s="25" t="n"/>
+      <c r="L75" s="25" t="inlineStr">
+        <is>
+          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+        </is>
+      </c>
       <c r="M75" s="25" t="n"/>
       <c r="N75" s="25" t="n"/>
       <c r="O75" s="25" t="n"/>
       <c r="P75" s="25" t="n"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="21" t="n"/>
-      <c r="C76" s="21" t="n"/>
+      <c r="A76" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B76" s="21" t="inlineStr"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>定義最低許可權模型和降低特權帳戶的暴露</t>
+        </is>
+      </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="25" t="n"/>
+      <c r="L76" s="25" t="inlineStr">
+        <is>
+          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+        </is>
+      </c>
       <c r="M76" s="25" t="n"/>
       <c r="N76" s="25" t="n"/>
       <c r="O76" s="25" t="n"/>
       <c r="P76" s="25" t="n"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="21" t="n"/>
-      <c r="C77" s="21" t="n"/>
+      <c r="A77" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B77" s="21" t="inlineStr"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>使用專用連結服務啟用端到端網路隔離。（Microsoft Purview 數據映射）</t>
+        </is>
+      </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
-      <c r="L77" s="25" t="n"/>
+      <c r="L77" s="25" t="inlineStr">
+        <is>
+          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+        </is>
+      </c>
       <c r="M77" s="25" t="n"/>
       <c r="N77" s="25" t="n"/>
       <c r="O77" s="25" t="n"/>
       <c r="P77" s="25" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="21" t="n"/>
-      <c r="C78" s="21" t="n"/>
+      <c r="A78" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B78" s="21" t="inlineStr"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>使用 Microsoft Purview Firewall 禁用公共訪問。（Microsoft Purview 數據映射）</t>
+        </is>
+      </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="n"/>
+      <c r="H78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+        </is>
+      </c>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
-      <c r="L78" s="25" t="n"/>
+      <c r="L78" s="25" t="inlineStr">
+        <is>
+          <t>418db612-8126-4504-ab47-a393a0804272</t>
+        </is>
+      </c>
       <c r="M78" s="25" t="n"/>
       <c r="N78" s="25" t="n"/>
       <c r="O78" s="25" t="n"/>
       <c r="P78" s="25" t="n"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="21" t="n"/>
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B79" s="21" t="inlineStr"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>為部署了 Azure 數據源專用終結點、Microsoft Purview 專用終結點和自承載運行時 VM 的子網部署網路安全組 （NSG） 規則。（Microsoft Purview 數據映射）</t>
+        </is>
+      </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="n"/>
+      <c r="H79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="25" t="n"/>
+      <c r="L79" s="25" t="inlineStr">
+        <is>
+          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+        </is>
+      </c>
       <c r="M79" s="25" t="n"/>
       <c r="N79" s="25" t="n"/>
       <c r="O79" s="25" t="n"/>
       <c r="P79" s="25" t="n"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="21" t="n"/>
-      <c r="C80" s="21" t="n"/>
+      <c r="A80" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B80" s="21" t="inlineStr"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>使用網路虛擬設備管理的專用終結點（例如用於網路檢查和網路篩選的 Azure 防火牆）實現 Microsoft Purview。（Microsoft Purview 數據映射）</t>
+        </is>
+      </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="n"/>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+        </is>
+      </c>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
-      <c r="L80" s="25" t="n"/>
+      <c r="L80" s="25" t="inlineStr">
+        <is>
+          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+        </is>
+      </c>
       <c r="M80" s="25" t="n"/>
       <c r="N80" s="25" t="n"/>
       <c r="O80" s="25" t="n"/>
       <c r="P80" s="25" t="n"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="A81" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B81" s="21" t="inlineStr"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>為 Microsoft Purview 帳戶部署專用終結點以添加另一層安全性，以便僅允許源自虛擬網路中的用戶端調用訪問 Microsoft Purview 帳戶</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="inlineStr">
+        <is>
+          <t>此專用終結點也是門戶專用終結點的先決條件。需要 Microsoft Purview 門戶專用終結點才能使用專用網路啟用與 Microsoft Purview 治理門戶的連接。Microsoft Purview 可以使用引入專用終結點掃描 Azure 或本地環境中的數據源。使用私有終端節點的限制 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+        </is>
+      </c>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="25" t="n"/>
+      <c r="L81" s="25" t="inlineStr">
+        <is>
+          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+        </is>
+      </c>
       <c r="M81" s="25" t="n"/>
       <c r="N81" s="25" t="n"/>
       <c r="O81" s="25" t="n"/>
       <c r="P81" s="25" t="n"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="21" t="n"/>
-      <c r="C82" s="21" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="A82" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B82" s="21" t="inlineStr"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>使用 Microsoft Purview 防火牆阻止公共訪問</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access。審查限制：https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
-      <c r="L82" s="25" t="n"/>
+      <c r="L82" s="25" t="inlineStr">
+        <is>
+          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+        </is>
+      </c>
       <c r="M82" s="25" t="n"/>
       <c r="N82" s="25" t="n"/>
       <c r="O82" s="25" t="n"/>
       <c r="P82" s="25" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="21" t="n"/>
-      <c r="C83" s="21" t="n"/>
+      <c r="A83" s="21" t="inlineStr">
+        <is>
+          <t>網路安全</t>
+        </is>
+      </c>
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>使用網路安全組篩選進出 Azure 虛擬網路中 Azure 資源的網路流量</t>
+        </is>
+      </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="n"/>
+      <c r="H83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="25" t="n"/>
+      <c r="L83" s="25" t="inlineStr">
+        <is>
+          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+        </is>
+      </c>
       <c r="M83" s="25" t="n"/>
       <c r="N83" s="25" t="n"/>
       <c r="O83" s="25" t="n"/>
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>如果您的敏感數據無法離開本地 VNet 的邊界，強烈建議在企業 VNet 中使用 SHIR VM 來提取元數據</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
+        </is>
+      </c>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
-      <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure RBAC 將儲存帳戶（不受 MS 管理）的訪問許可權限限為僅目標使用者。</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="inlineStr">
+        <is>
+          <t>元數據被提取並存儲在 Microsoft Purview 數據映射中，如果您沒有將託管存儲帳戶用於 Purview 帳戶，則所有人都可以訪問元數據，因此請實施適當的 RBAC 並將數據存取許可權限限為僅預期使用者。適用於 2023 年 12 月 15 日之後部署的帳戶（或使用 API 版本 2023-05-01-preview 及更高版本部署的帳戶）</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>靜態數據由 Microsoft 託管金鑰加密</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>傳輸中的數據由TLS 1.3 加密</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>如果不使用託管標識或沒有需要密碼的方法，請始終使用 Azure Key Vault 來存儲所有憑據</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>防止意外刪除</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>通過應用資源鎖來防止意外刪除 Microsoft Purview 帳戶</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
-      <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="21" t="inlineStr"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>為 Microsoft Entra 租戶、Azure 訂閱和 Microsoft Purview 帳戶規劃不受限策略，以防止租戶範圍的帳戶鎖定。</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>其他安全建議</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>與 Microsoft 365 和 Microsoft Defender for Cloud 集成</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
-      <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>定義最低許可權模型和降低特權帳戶的暴露</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>將管理員帳戶與普通用戶帳戶分開。</t>
+        </is>
+      </c>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
-      <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>配置單點登錄和統一登錄。啟用多重身份驗證。</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks 支援 Microsoft Entra ID 條件訪問，它允許管理員控制允許使用者登錄 Azure Databricks 的位置和時間。條件訪問策略可以限制登錄到您的公司網路，或者可以要求多重身份驗證 （MFA）。</t>
+        </is>
+      </c>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
-      <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>使用 Token 管理。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>客戶可以使用令牌管理 API 或 UI 控制件來啟用或禁用用於 REST API 身份驗證的個人存取權杖 （PAT）、限制允許使用 PAT 的使用者、設置新令牌的最長生命週期以及管理現有令牌。高度安全的客戶通常會為工作區的新令牌預置最長令牌生命週期。此功能需要 Premium 定價層。</t>
+        </is>
+      </c>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
-      <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>將管理員帳戶與普通用戶帳戶分開</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>如果你的 Databricks 管理員也是 Databricks 平臺的普通使用者（例如，有一名首席數據工程師管理平臺並執行數據工程工作），Databricks 建議為管理任務創建一個單獨的帳戶。請務必注意，作為 Azure RBAC 模型的一部分，被授予對已部署的 Azure Databricks 工作區的資源組的參與者或更高許可權的使用者在登錄到該工作區時會自動成為管理員。因此，上述相同注意事項也應適用於 Azure 門戶使用者。</t>
+        </is>
+      </c>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>使用者和組的 SCIM 同步。</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM（跨域身份管理系統）允許您將使用者和組從 Microsoft Entra ID 同步到 Azure Databricks。此方法有三個主要好處：1. 刪除使用者時，該用戶會自動從 Databricks 中刪除。2. 使用者也可以通過 SCIM 暫時禁用。客戶已將此功能用於客戶認為帳戶可能已洩露並需要調查 3.組會自動同步 有關如何為 Azure Databricks 配置 SCIM 的詳細說明，請參閱文檔。此功能需要 Premium 定價層</t>
+        </is>
+      </c>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
-      <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>限制集群創建許可權。</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="inlineStr">
+        <is>
+          <t>使用集群策略或較舊的集群 ACL，管理員可以定義組織內的哪些使用者或組能夠創建集群。集群 ACL 允許您指定哪些使用者可以將筆記本附加到給定集群。請注意，如果用戶共用已附加到標準模式集群的筆記本，則接收者也將能夠在該集群上執行代碼。這不適用於強制實施用戶隔離的群集：SQL 倉庫、與表 ACL 的高併發性群集以及與憑據直通群集的高併發性。使用 Unity Catalog 的客戶還可以啟用單使用者集群來強制實施隔離集群。</t>
+        </is>
+      </c>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
-      <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="21" t="inlineStr"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>限制工作區管理員</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>帳戶管理員可以配置名為 RestrictWorkspaceAdmins 的工作區設置，以限制工作區管理員僅將作業擁有者更改為自己，並將作業運行方式設置更改為他們具有服務主體使用者角色的服務主體。</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>在 Azure Key Vault 中存儲密碼和機密</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>請務必注意，即使客戶使用 Azure Key Vault 儲存其機密，仍需要在 Azure Databricks 中定義訪問控制。這是因為使用相同的服務標識來檢索 Azure Databricks 工作區的所有用戶的機密。</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="21" t="inlineStr"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>如果定期使用金鑰，請重新生成/輪換金鑰</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>使用支援用戶隔離的集群。</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>具有用戶隔離的集群包括強制執行，以便每個使用者在集群主機上以不同的非特權用戶帳戶運行。語言也僅限於可以以隔離方式實現的語言（SQL 和 Python），並且 Spark API 必須位於我們認為隔離安全的允許清單中。</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>使用服務主體運行生產作業。對工作區級別 （ACL）、帳戶級別 （RBAC） 和數據級別 （Unity catalog） 安全控制使用適當的存取控制</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>將生產工作負載綁定到單個用戶帳戶違反了安全最佳實踐，因此我們建議在 Databricks 中配置服務主體。服務原則將管理員和使用者操作與工作負載分開，並防止工作負載在使用者離開組織時受到影響。使用 Databricks，可以將作業配置為作為服務主體運行，併為服務主體生成個人訪問令牌。</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
-      <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>避免將生產數據存儲在 DBFS 中。</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>默認情況下，DBFS 是一個文件系統，可供給定工作區的所有使用者訪問，並且可以通過 API 訪問。這不一定是一個主要的數據洩露問題，因為您可以使用IP訪問清單或專用網路訪問來限制通過 DBFS API 或 Databricks cli 訪問資料的訪問。但是，隨著 Azure Databricks 使用量的增長和更多使用者加入工作區，這些使用者將有權訪問存儲在 DBFS 中的任何數據，從而產生不需要的信息共用的可能性。Databricks 建議我們的客戶不要將生產數據存儲在 DBFS 中。</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
-      <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>加密存儲並限制訪問。</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>對於你管理的存儲帳戶，你有責任確保根據你的要求保護存儲帳戶。範例可能包括：使用客戶管理的密鑰進行加密、使用存儲防火牆限制對受信任網路的訪問、不允許匿名公共訪問</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>數據保護</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>為託管服務和工作區存儲添加客戶管理的金鑰</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>為存儲在 Azure Databricks 控制平面中的選定數據（例如筆記本、機密、Databricks SQL 查詢和 Databricks SQL 查詢歷史記錄）以及用於 DBFS 的根存儲帳戶添加客戶管理的密鑰。Azure Databricks 需要訪問此密鑰才能進行持續操作。可以撤銷對金鑰的訪問許可權，以防止 Azure Databricks 存取控制平面（或我們的備份）中的加密數據。這就像一個核選項，工作區停止運行，但它為極端情況提供了緊急控制。此功能需要 Premium 定價層。</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
-      <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>聯網</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>啟用IP存取清單以限制對某些IP位址的訪問。</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t>配置IP訪問清單，通過檢查使用者或API用戶端是否來自已知的良好IP位址範圍（如 VPN 或辦公網路），來限制可在帳戶控制台和工作區級別向 Databricks 進行身份驗證的IP位址。如果使用者移動到錯誤的IP位址（例如，從 VPN 斷開連接時），已建立的使用者會話將不起作用。</t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
-      <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>聯網</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>配置和使用 Azure 專用連結訪問 Azure 資源。</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Azure 專用連結提供從一個 Azure 環境到另一個 Azure 環境的專用網路路由。專用連結既可以在 Azure Databricks 使用者和控制平面之間配置，也可以在控制平面和數據平面之間配置。在 Databricks 使用者和控制平面之間，專用連結提供了強大的控制措施來限制入站請求的來源。如果公司已通過 Azure 環境路由流量，則可以使用專用連結，以便使用者與 Azure Databricks 控制平面之間的通信不會遍歷公共 IP 位址。此功能需要 Premium 定價層。使用 Azure 專用連結從 Azure Databricks 連接到 Azure 資源。專用鏈接不僅確保</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
@@ -7518,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/datasecurity_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.zh-Hant.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
